--- a/Mod/ModProject_Cave/ModProject/ModExcel/LocalText.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/LocalText.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="831">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -472,6 +472,24 @@
     <t>MID&amp;30</t>
   </si>
   <si>
+    <t>caveName3004</t>
+  </si>
+  <si>
+    <t>地牢</t>
+  </si>
+  <si>
+    <t>MID&amp;31</t>
+  </si>
+  <si>
+    <t>caveDes3004</t>
+  </si>
+  <si>
+    <t>一个阴森的地下牢房。</t>
+  </si>
+  <si>
+    <t>MID&amp;32</t>
+  </si>
+  <si>
     <t>caveName42685182</t>
   </si>
   <si>
@@ -481,7 +499,7 @@
     <t>Sun Moon Spring</t>
   </si>
   <si>
-    <t>MID&amp;31</t>
+    <t>MID&amp;33</t>
   </si>
   <si>
     <t>caveTips42685182</t>
@@ -496,7 +514,7 @@
     <t>Absorbs the essence of the sun and the moon and condenses manna, which can be drunk to gain great power.</t>
   </si>
   <si>
-    <t>MID&amp;32</t>
+    <t>MID&amp;34</t>
   </si>
   <si>
     <t>caveDes42685182</t>
@@ -505,7 +523,7 @@
     <t>It absorbs the essence of the sun and the moon and condenses the dew.</t>
   </si>
   <si>
-    <t>MID&amp;33</t>
+    <t>MID&amp;35</t>
   </si>
   <si>
     <t>role_feature_postnatal_name42685182</t>
@@ -520,7 +538,7 @@
     <t>Sun and Moon Essence</t>
   </si>
   <si>
-    <t>MID&amp;34</t>
+    <t>MID&amp;36</t>
   </si>
   <si>
     <t>role_feature_postnatal_tips42685182</t>
@@ -535,7 +553,7 @@
     <t>Drinking tea made from the Sun and Moon water spring absorbs the essence of the Sun and Moon, +10% attack power, +10 luck, +20 enlightenment</t>
   </si>
   <si>
-    <t>MID&amp;35</t>
+    <t>MID&amp;37</t>
   </si>
   <si>
     <t>role_feature_postnatal_name123010217</t>
@@ -544,7 +562,7 @@
     <t>关押地牢</t>
   </si>
   <si>
-    <t>MID&amp;36</t>
+    <t>MID&amp;38</t>
   </si>
   <si>
     <t>role_feature_postnatal_tips123010217</t>
@@ -553,7 +571,7 @@
     <t>被关押再地牢中，行动受限。</t>
   </si>
   <si>
-    <t>MID&amp;37</t>
+    <t>MID&amp;39</t>
   </si>
   <si>
     <t>drama_option42685182</t>
@@ -568,7 +586,7 @@
     <t>Drink some spring water</t>
   </si>
   <si>
-    <t>MID&amp;38</t>
+    <t>MID&amp;40</t>
   </si>
   <si>
     <t>drama_option42685183</t>
@@ -583,13 +601,13 @@
     <t>Come to see the Dragon</t>
   </si>
   <si>
-    <t>MID&amp;39</t>
+    <t>MID&amp;41</t>
   </si>
   <si>
     <t>drama_option42685184</t>
   </si>
   <si>
-    <t>MID&amp;40</t>
+    <t>MID&amp;42</t>
   </si>
   <si>
     <t>role_feature_postnatal_tips700188</t>
@@ -604,7 +622,7 @@
     <t>With this Destiny fortification, the Following Dragon around you can be transformed in the Sun Moon Springs.</t>
   </si>
   <si>
-    <t>MID&amp;41</t>
+    <t>MID&amp;43</t>
   </si>
   <si>
     <t>fateStoryDesc700188</t>
@@ -619,7 +637,7 @@
     <t>Just as you are about to Breakthrough, the Following Dragon glows all over. In an instant, the surroundings are retuned to calm and it seems no change has occurred. The Following Dragon keeps giving you looks, as if telling you it urgently needs to return to the Sect Sun Moon Springs.</t>
   </si>
   <si>
-    <t>MID&amp;42</t>
+    <t>MID&amp;44</t>
   </si>
   <si>
     <t>schoolSloganDesc141</t>
@@ -634,7 +652,7 @@
     <t>An exclusive building called Sun Moon Springs that is used to nurture Following Bug.</t>
   </si>
   <si>
-    <t>MID&amp;43</t>
+    <t>MID&amp;45</t>
   </si>
   <si>
     <t>schoolBuildingName1112</t>
@@ -643,7 +661,7 @@
     <t>Sun Moon Springs</t>
   </si>
   <si>
-    <t>MID&amp;44</t>
+    <t>MID&amp;46</t>
   </si>
   <si>
     <t>dragonDoor_effectTitle</t>
@@ -658,7 +676,7 @@
     <t>Sun Moon Springs Level {0} Effect</t>
   </si>
   <si>
-    <t>MID&amp;45</t>
+    <t>MID&amp;47</t>
   </si>
   <si>
     <t>dragonDoor_upgradeCostTips</t>
@@ -673,7 +691,7 @@
     <t>Required Sun Moon Springs Level</t>
   </si>
   <si>
-    <t>MID&amp;46</t>
+    <t>MID&amp;48</t>
   </si>
   <si>
     <t>dragonDoor_upgradeEffectTips</t>
@@ -685,7 +703,7 @@
     <t>Sun Moon Springs Efficacy</t>
   </si>
   <si>
-    <t>MID&amp;47</t>
+    <t>MID&amp;49</t>
   </si>
   <si>
     <t>dragonDoor_upgradeFailMax</t>
@@ -700,7 +718,7 @@
     <t>This region's Energy does not support further upgrading of Sun Moon Springs</t>
   </si>
   <si>
-    <t>MID&amp;48</t>
+    <t>MID&amp;50</t>
   </si>
   <si>
     <t>dragonDoor_transfigurationFail1</t>
@@ -715,7 +733,7 @@
     <t>Sun Moon Springs level too low. You cannot change form</t>
   </si>
   <si>
-    <t>MID&amp;49</t>
+    <t>MID&amp;51</t>
   </si>
   <si>
     <t>dragonDoor_des</t>
@@ -873,7 +891,7 @@
 4. In the Sun Moon Spring, you can interact with the Dragon to promote your relationship.</t>
   </si>
   <si>
-    <t>MID&amp;50</t>
+    <t>MID&amp;52</t>
   </si>
   <si>
     <t>dragonDoor_levelMaxTips</t>
@@ -888,7 +906,7 @@
     <t>Sun Moon Springs can be upgraded to a new level only once per region. If you currently cannot upgrade, you will be able to upgrade once you move.</t>
   </si>
   <si>
-    <t>MID&amp;51</t>
+    <t>MID&amp;53</t>
   </si>
   <si>
     <t>dragonDoor_levelTips</t>
@@ -903,7 +921,7 @@
     <t>When upgrading Sun Moon Springs to a new level, you can choose a new effect.</t>
   </si>
   <si>
-    <t>MID&amp;52</t>
+    <t>MID&amp;54</t>
   </si>
   <si>
     <t>dragonDoor_unLockTips</t>
@@ -918,7 +936,7 @@
     <t>Requires Sun Moon Springs to break through level {0}</t>
   </si>
   <si>
-    <t>MID&amp;53</t>
+    <t>MID&amp;55</t>
   </si>
   <si>
     <t>dragonDoor_unLockTips2</t>
@@ -933,13 +951,13 @@
     <t>Activate level 1 Sun Moon Springs to unlock</t>
   </si>
   <si>
-    <t>MID&amp;54</t>
+    <t>MID&amp;56</t>
   </si>
   <si>
     <t>dragonDoor_levelUpTips2</t>
   </si>
   <si>
-    <t>MID&amp;55</t>
+    <t>MID&amp;57</t>
   </si>
   <si>
     <t>dragonDoor_lockTips</t>
@@ -954,7 +972,7 @@
     <t>Only the Sect Leaders of this Sect may access the Sun Moon Springs</t>
   </si>
   <si>
-    <t>MID&amp;56</t>
+    <t>MID&amp;58</t>
   </si>
   <si>
     <t>drama_dialogue1304501</t>
@@ -969,7 +987,7 @@
     <t>A crisis has arisen, Dragon King. Since you had the Sun Moon Springs repaired, a Qin Yuan bee has repeatedly come to absorb Qi from it. The Qin Yuan is wandering around the Sect as we speak.</t>
   </si>
   <si>
-    <t>MID&amp;57</t>
+    <t>MID&amp;59</t>
   </si>
   <si>
     <t>drama_dialogue1304503</t>
@@ -984,7 +1002,7 @@
     <t>The Qin Yuan is an ravenous beast, and has already taken most of the Qi from our pool. The Sun Moon Springs of our Sect has always been a place where dragons could recover their strength, and we cannot allow a beast like this to wantonly occupy us.</t>
   </si>
   <si>
-    <t>MID&amp;58</t>
+    <t>MID&amp;60</t>
   </si>
   <si>
     <t>drama_dialogue1304506</t>
@@ -999,7 +1017,7 @@
     <t>Just recently I led a team of disciples to drive out the monster, but so ancient and abnormal is it that, with our meager abilities, we could only drive it away from the Sun Moon Springs. It wanders still nearby the Sect, and I humbly ask you to go and expel it for us, my lord!</t>
   </si>
   <si>
-    <t>MID&amp;59</t>
+    <t>MID&amp;61</t>
   </si>
   <si>
     <t>drama_dialogue1304513</t>
@@ -1014,7 +1032,7 @@
     <t>This has been protected by dragon kings throughout the ages. It is imbued with Sun Moon Springs Qi and bears a connection with the spring. If the spring were to be abandoned, then this text would too seal itself and vanish. Now that you have restored the Sun Moon Springs, my lord, this text has once again seen the light of day. The secret history of our Sect will not be lost to time.</t>
   </si>
   <si>
-    <t>MID&amp;60</t>
+    <t>MID&amp;62</t>
   </si>
   <si>
     <t>drama_dialogue1304530</t>
@@ -1029,7 +1047,7 @@
     <t>It has truly been a blessing for our Sect that you have restored the Sun Moon Springs. Only... Only there is something else I must tell you.</t>
   </si>
   <si>
-    <t>MID&amp;61</t>
+    <t>MID&amp;63</t>
   </si>
   <si>
     <t>drama_dialogue1304531</t>
@@ -1044,7 +1062,7 @@
     <t>In recent days, the theft of Qi from the Sun Moon Springs by a Qin Yuan has left the spring unbearably muddy. If I may be so bold, I suggest we seek out Cosmos Essence to restore the spring.</t>
   </si>
   <si>
-    <t>MID&amp;62</t>
+    <t>MID&amp;64</t>
   </si>
   <si>
     <t>drama_dialogue1304534</t>
@@ -1059,7 +1077,7 @@
     <t>In that case, the Sun Moon Springs will be restored to its former glory in a matter of days.</t>
   </si>
   <si>
-    <t>MID&amp;63</t>
+    <t>MID&amp;65</t>
   </si>
   <si>
     <t>drama_dialogue1304535</t>
@@ -1074,7 +1092,7 @@
     <t>My lord, just now I saw a purple cloud around the Sun Moon Springs, and when I went to investigate, I found yet another secret record of the Sect that had been sealed. I present it to you now.</t>
   </si>
   <si>
-    <t>MID&amp;64</t>
+    <t>MID&amp;66</t>
   </si>
   <si>
     <t>drama_dialogue1304565</t>
@@ -1089,7 +1107,7 @@
     <t>My lord, yet another secret history text from our Sect has resurfaced in the wake of the Sun Moon Springs's restoration. I present it to you now!</t>
   </si>
   <si>
-    <t>MID&amp;65</t>
+    <t>MID&amp;67</t>
   </si>
   <si>
     <t>drama_dialogue1304590</t>
@@ -1104,7 +1122,7 @@
     <t>My lord, the Qi has gotten stronger and stronger with the restoration of the Sun Moon Springs. The Qin Yuan has still taken over nearby our Sect. I fear it will soon act on its desire to take over our spring.</t>
   </si>
   <si>
-    <t>MID&amp;66</t>
+    <t>MID&amp;68</t>
   </si>
   <si>
     <t>drama_dialogue1304592</t>
@@ -1119,13 +1137,13 @@
     <t>Hm... Though according to my investigation, the Qin Yuan's strength has grown in no small amount with all the Qi it has absorbed from the Sun Moon Springs. Please take care, my lord!</t>
   </si>
   <si>
-    <t>MID&amp;67</t>
+    <t>MID&amp;69</t>
   </si>
   <si>
     <t>drama_dialogue1304593</t>
   </si>
   <si>
-    <t>MID&amp;68</t>
+    <t>MID&amp;70</t>
   </si>
   <si>
     <t>drama_dialogue1304620</t>
@@ -1140,7 +1158,7 @@
     <t>Greetings, Sect Leader! This place is a favored dwelling for the Following Bugs of our Sect. It is my humble opinion that we can make use of the Sect's resources to &lt;r&gt;upgrade&lt;/r&gt; the Sun Moon Springs. Once it is upgraded, the Following Bugs will be able to gain unique &lt;r&gt;Special Effects&lt;/r&gt; by bathing in it.</t>
   </si>
   <si>
-    <t>MID&amp;69</t>
+    <t>MID&amp;71</t>
   </si>
   <si>
     <t>drama_dialogue1304621</t>
@@ -1155,7 +1173,7 @@
     <t>My seniors used to tell me that once the Sun Moon Springs is upgraded to a certain level, it will have magical effects on the Following Bugs. If you have a Following Bug with you, my lord, why not bring it here and have it &lt;r&gt;interact&lt;/r&gt; with the spring. I am sure that the effects of the Sun Moon Springs will one day allow the Following Bug to &lt;r&gt;transform into a dragon&lt;/r&gt; and soar across the land.</t>
   </si>
   <si>
-    <t>MID&amp;70</t>
+    <t>MID&amp;72</t>
   </si>
   <si>
     <t>taskDesc2110551</t>
@@ -1177,7 +1195,7 @@
 This is also possible in &lt;g&gt;Spiritlock Circle&lt;/g&gt; within &lt;g&gt;{#areaName4}&lt;/g&gt; &lt;y&gt;(So long as you have already completed the level once)&lt;/y&gt; (You can ask about the location of the &lt;g&gt;Spiritlock Circle&lt;/g&gt; at the Tavern). (Return to Sun Moon Springs to submit)</t>
   </si>
   <si>
-    <t>MID&amp;71</t>
+    <t>MID&amp;73</t>
   </si>
   <si>
     <t>drama_dialogue1305050</t>
@@ -1192,7 +1210,7 @@
     <t>My lord, I've been working hard with you for the sect, and I'm really tired lately. Could you take me back to Sun Moon Springs to relax a bit?</t>
   </si>
   <si>
-    <t>MID&amp;72</t>
+    <t>MID&amp;74</t>
   </si>
   <si>
     <t>drama_dialogue1305051</t>
@@ -1207,7 +1225,7 @@
     <t>You arrive at Sun Moon Springs and find Yun Ya and Jujubes preparing a table of delicacies next to the spring.</t>
   </si>
   <si>
-    <t>MID&amp;73</t>
+    <t>MID&amp;75</t>
   </si>
   <si>
     <t>Cave_ModName</t>
@@ -1216,7 +1234,7 @@
     <t>洞天福地</t>
   </si>
   <si>
-    <t>MID&amp;74</t>
+    <t>MID&amp;76</t>
   </si>
   <si>
     <t>Cave_NeedModName</t>
@@ -1243,7 +1261,7 @@
     <t>UIFramework</t>
   </si>
   <si>
-    <t>MID&amp;75</t>
+    <t>MID&amp;77</t>
   </si>
   <si>
     <t>Cave_NeedModTips</t>
@@ -1258,7 +1276,7 @@
     <t>{0} module requires {1} module to be installed before it can be used. It is detected that you have not installed {0} correctly, which may affect the use of module functions. You can search for &lt;r&gt;UIFramework&lt;/r&gt; subscription {1} in the module store. After subscription, you need to go to the local module and move {1} above the {0} module.</t>
   </si>
   <si>
-    <t>MID&amp;76</t>
+    <t>MID&amp;78</t>
   </si>
   <si>
     <t>Cave_NpcWaiChu</t>
@@ -1270,7 +1288,7 @@
     <t>正在外出，暫時無法整容！</t>
   </si>
   <si>
-    <t>MID&amp;77</t>
+    <t>MID&amp;79</t>
   </si>
   <si>
     <t>Cave_NpcLiDui</t>
@@ -1282,7 +1300,7 @@
     <t>離隊</t>
   </si>
   <si>
-    <t>MID&amp;78</t>
+    <t>MID&amp;80</t>
   </si>
   <si>
     <t>Cave_NpcZuDui</t>
@@ -1291,7 +1309,7 @@
     <t>同行</t>
   </si>
   <si>
-    <t>MID&amp;79</t>
+    <t>MID&amp;81</t>
   </si>
   <si>
     <t>Cave_NpcWaiChu2</t>
@@ -1318,7 +1336,7 @@
     <t>正在外出，暫時無法邀請同行！</t>
   </si>
   <si>
-    <t>MID&amp;80</t>
+    <t>MID&amp;82</t>
   </si>
   <si>
     <t>Cave_LongBattleTalk</t>
@@ -1330,7 +1348,7 @@
     <t>龍兒願與主人共生死。</t>
   </si>
   <si>
-    <t>MID&amp;81</t>
+    <t>MID&amp;83</t>
   </si>
   <si>
     <t>Cave_LongIdleTalk</t>
@@ -1342,7 +1360,7 @@
     <t>龍兒會在這裡等待主人的</t>
   </si>
   <si>
-    <t>MID&amp;82</t>
+    <t>MID&amp;84</t>
   </si>
   <si>
     <t>Cave_LongBattle</t>
@@ -1351,7 +1369,7 @@
     <t>休息</t>
   </si>
   <si>
-    <t>MID&amp;83</t>
+    <t>MID&amp;85</t>
   </si>
   <si>
     <t>Cave_LongIdle</t>
@@ -1363,7 +1381,7 @@
     <t>出戰</t>
   </si>
   <si>
-    <t>MID&amp;84</t>
+    <t>MID&amp;86</t>
   </si>
   <si>
     <t>Cave_LongTalk1</t>
@@ -1375,7 +1393,7 @@
     <t>主人（〃▽〃）</t>
   </si>
   <si>
-    <t>MID&amp;85</t>
+    <t>MID&amp;87</t>
   </si>
   <si>
     <t>Cave_LongTalk2</t>
@@ -1384,7 +1402,7 @@
     <t>手往哪放呢</t>
   </si>
   <si>
-    <t>MID&amp;86</t>
+    <t>MID&amp;88</t>
   </si>
   <si>
     <t>Cave_LongTalk3</t>
@@ -1396,7 +1414,7 @@
     <t>別這樣</t>
   </si>
   <si>
-    <t>MID&amp;87</t>
+    <t>MID&amp;89</t>
   </si>
   <si>
     <t>Cave_TongbuXiugaiDongfuMingzi</t>
@@ -1408,7 +1426,7 @@
     <t>同步修改洞府名稱</t>
   </si>
   <si>
-    <t>MID&amp;88</t>
+    <t>MID&amp;90</t>
   </si>
   <si>
     <t>Cave_ShuxieNeirong</t>
@@ -1420,7 +1438,7 @@
     <t>書寫{0}內容</t>
   </si>
   <si>
-    <t>MID&amp;89</t>
+    <t>MID&amp;91</t>
   </si>
   <si>
     <t>Cave_DakaiZhenfaTips</t>
@@ -1432,7 +1450,7 @@
     <t>開啟了洞府法陣！</t>
   </si>
   <si>
-    <t>MID&amp;90</t>
+    <t>MID&amp;92</t>
   </si>
   <si>
     <t>Cave_GuanbiZhenfaTips</t>
@@ -1444,7 +1462,7 @@
     <t>關閉了洞府法陣！</t>
   </si>
   <si>
-    <t>MID&amp;91</t>
+    <t>MID&amp;93</t>
   </si>
   <si>
     <t>Cave_GongnengWeikai</t>
@@ -1456,7 +1474,7 @@
     <t>功能未開放，敬請期待！</t>
   </si>
   <si>
-    <t>MID&amp;92</t>
+    <t>MID&amp;94</t>
   </si>
   <si>
     <t>Cave_Level</t>
@@ -1468,7 +1486,7 @@
     <t>等級</t>
   </si>
   <si>
-    <t>MID&amp;93</t>
+    <t>MID&amp;95</t>
   </si>
   <si>
     <t>Cave_Ji</t>
@@ -1480,7 +1498,7 @@
     <t>級</t>
   </si>
   <si>
-    <t>MID&amp;94</t>
+    <t>MID&amp;96</t>
   </si>
   <si>
     <t>Cave_DieLikai</t>
@@ -1492,7 +1510,7 @@
     <t>{0}已身死道消，離開了洞府。</t>
   </si>
   <si>
-    <t>MID&amp;95</t>
+    <t>MID&amp;97</t>
   </si>
   <si>
     <t>Cave_GerenLikai</t>
@@ -1535,7 +1553,7 @@
     <t>{0}同意了邀請，住進了{1}。</t>
   </si>
   <si>
-    <t>MID&amp;96</t>
+    <t>MID&amp;98</t>
   </si>
   <si>
     <t>Cave_JujueYaoqing</t>
@@ -1578,7 +1596,7 @@
     <t>{0}拒絕了{1}的邀請。</t>
   </si>
   <si>
-    <t>MID&amp;97</t>
+    <t>MID&amp;99</t>
   </si>
   <si>
     <t>Cave_WanCheng</t>
@@ -1587,7 +1605,7 @@
     <t>完成</t>
   </si>
   <si>
-    <t>MID&amp;98</t>
+    <t>MID&amp;100</t>
   </si>
   <si>
     <t>Cave_BaocunNielian</t>
@@ -1599,7 +1617,7 @@
     <t>確定保存捏臉並退出嗎？</t>
   </si>
   <si>
-    <t>MID&amp;99</t>
+    <t>MID&amp;101</t>
   </si>
   <si>
     <t>Cave_TuichuNielian</t>
@@ -1611,7 +1629,7 @@
     <t>確定直接退出嗎？ 將不會保存捏臉結果！</t>
   </si>
   <si>
-    <t>MID&amp;100</t>
+    <t>MID&amp;102</t>
   </si>
   <si>
     <t>Cave_ShuZhuang</t>
@@ -1623,7 +1641,7 @@
     <t>梳妝台—</t>
   </si>
   <si>
-    <t>MID&amp;101</t>
+    <t>MID&amp;103</t>
   </si>
   <si>
     <t>Cave_FristOpenHomeDram</t>
@@ -1635,7 +1653,7 @@
     <t>歡迎回家！ 您的主介面已經加入了回家按鈕，只要點擊回家按鈕就能瞬間回家！</t>
   </si>
   <si>
-    <t>MID&amp;102</t>
+    <t>MID&amp;104</t>
   </si>
   <si>
     <t>Cave_Wangou</t>
@@ -1647,7 +1665,7 @@
     <t>網購</t>
   </si>
   <si>
-    <t>MID&amp;103</t>
+    <t>MID&amp;105</t>
   </si>
   <si>
     <t>Cave_Zichan</t>
@@ -1659,7 +1677,7 @@
     <t>資產</t>
   </si>
   <si>
-    <t>MID&amp;104</t>
+    <t>MID&amp;106</t>
   </si>
   <si>
     <t>Cave_Huoban</t>
@@ -1671,7 +1689,7 @@
     <t>夥伴</t>
   </si>
   <si>
-    <t>MID&amp;105</t>
+    <t>MID&amp;107</t>
   </si>
   <si>
     <t>Cave_Jishi</t>
@@ -1683,7 +1701,7 @@
     <t>記事</t>
   </si>
   <si>
-    <t>MID&amp;106</t>
+    <t>MID&amp;108</t>
   </si>
   <si>
     <t>Cave_BuyTips</t>
@@ -1695,7 +1713,7 @@
     <t>確認花費{0}靈石購買{0}嗎？</t>
   </si>
   <si>
-    <t>MID&amp;107</t>
+    <t>MID&amp;109</t>
   </si>
   <si>
     <t>Cave_BuyLog</t>
@@ -1707,7 +1725,7 @@
     <t>花費{0}靈石從仙居閣購買了{1}。</t>
   </si>
   <si>
-    <t>MID&amp;108</t>
+    <t>MID&amp;110</t>
   </si>
   <si>
     <t>Cave_BuyLog2</t>
@@ -1719,7 +1737,7 @@
     <t>花費{0}靈石從仙居閣購買了{1}1級{2}。</t>
   </si>
   <si>
-    <t>MID&amp;109</t>
+    <t>MID&amp;111</t>
   </si>
   <si>
     <t>Cave_Jiage</t>
@@ -1731,7 +1749,7 @@
     <t>價格</t>
   </si>
   <si>
-    <t>MID&amp;110</t>
+    <t>MID&amp;112</t>
   </si>
   <si>
     <t>Cave_Lingshi</t>
@@ -1743,7 +1761,7 @@
     <t>靈石</t>
   </si>
   <si>
-    <t>MID&amp;111</t>
+    <t>MID&amp;113</t>
   </si>
   <si>
     <t>Cave_Dianjigoumai</t>
@@ -1755,7 +1773,7 @@
     <t>點擊購買</t>
   </si>
   <si>
-    <t>MID&amp;112</t>
+    <t>MID&amp;114</t>
   </si>
   <si>
     <t>Cave_Dqchiyous</t>
@@ -1767,7 +1785,7 @@
     <t>當前持有數量</t>
   </si>
   <si>
-    <t>MID&amp;113</t>
+    <t>MID&amp;115</t>
   </si>
   <si>
     <t>Cave_Use</t>
@@ -1776,7 +1794,7 @@
     <t>使用中</t>
   </si>
   <si>
-    <t>MID&amp;114</t>
+    <t>MID&amp;116</t>
   </si>
   <si>
     <t>Cave_UnUse</t>
@@ -1785,7 +1803,7 @@
     <t>未使用</t>
   </si>
   <si>
-    <t>MID&amp;115</t>
+    <t>MID&amp;117</t>
   </si>
   <si>
     <t>Cave_ClickPut</t>
@@ -1797,7 +1815,7 @@
     <t>點擊放置</t>
   </si>
   <si>
-    <t>MID&amp;116</t>
+    <t>MID&amp;118</t>
   </si>
   <si>
     <t>Cave_ClickOut</t>
@@ -1834,7 +1852,7 @@
 （按下滑鼠滾輪可重置座標）</t>
   </si>
   <si>
-    <t>MID&amp;117</t>
+    <t>MID&amp;119</t>
   </si>
   <si>
     <t>Cave_LevelUpNeed</t>
@@ -1846,7 +1864,7 @@
     <t>升級需要</t>
   </si>
   <si>
-    <t>MID&amp;118</t>
+    <t>MID&amp;120</t>
   </si>
   <si>
     <t>Cave_CurState</t>
@@ -1858,7 +1876,7 @@
     <t>當前狀態</t>
   </si>
   <si>
-    <t>MID&amp;119</t>
+    <t>MID&amp;121</t>
   </si>
   <si>
     <t>Cave_LevelUpTp</t>
@@ -1870,7 +1888,7 @@
     <t>升級至</t>
   </si>
   <si>
-    <t>MID&amp;120</t>
+    <t>MID&amp;122</t>
   </si>
   <si>
     <t>Cave_LingshiAnd</t>
@@ -1882,7 +1900,7 @@
     <t>靈石將</t>
   </si>
   <si>
-    <t>MID&amp;121</t>
+    <t>MID&amp;123</t>
   </si>
   <si>
     <t>Cave_Cost</t>
@@ -1894,7 +1912,7 @@
     <t>花費</t>
   </si>
   <si>
-    <t>MID&amp;122</t>
+    <t>MID&amp;124</t>
   </si>
   <si>
     <t>Cave_LevelUp</t>
@@ -1906,7 +1924,7 @@
     <t>升級</t>
   </si>
   <si>
-    <t>MID&amp;123</t>
+    <t>MID&amp;125</t>
   </si>
   <si>
     <t>Cave_NpcState1</t>
@@ -1915,7 +1933,7 @@
     <t>已入住（洞府中）</t>
   </si>
   <si>
-    <t>MID&amp;124</t>
+    <t>MID&amp;126</t>
   </si>
   <si>
     <t>Cave_NpcState2</t>
@@ -1924,7 +1942,7 @@
     <t>已入住（外出中）</t>
   </si>
   <si>
-    <t>MID&amp;125</t>
+    <t>MID&amp;127</t>
   </si>
   <si>
     <t>Cave_NpcState3</t>
@@ -1936,7 +1954,7 @@
     <t>邀請中</t>
   </si>
   <si>
-    <t>MID&amp;126</t>
+    <t>MID&amp;128</t>
   </si>
   <si>
     <t>Cave_NpcState4</t>
@@ -1945,7 +1963,7 @@
     <t>未入住</t>
   </si>
   <si>
-    <t>MID&amp;127</t>
+    <t>MID&amp;129</t>
   </si>
   <si>
     <t>Cave_State</t>
@@ -1957,7 +1975,7 @@
     <t>狀態</t>
   </si>
   <si>
-    <t>MID&amp;128</t>
+    <t>MID&amp;130</t>
   </si>
   <si>
     <t>Cave_Yaoqing</t>
@@ -1969,7 +1987,7 @@
     <t>邀請</t>
   </si>
   <si>
-    <t>MID&amp;129</t>
+    <t>MID&amp;131</t>
   </si>
   <si>
     <t>Cave_Qingli</t>
@@ -1981,7 +1999,7 @@
     <t>請離</t>
   </si>
   <si>
-    <t>MID&amp;130</t>
+    <t>MID&amp;132</t>
   </si>
   <si>
     <t>Cave_Yjx_Fsyq</t>
@@ -2016,7 +2034,7 @@
     <t>已經向{0}發送邀請！</t>
   </si>
   <si>
-    <t>MID&amp;131</t>
+    <t>MID&amp;133</t>
   </si>
   <si>
     <t>Cave_Xfsfjcs</t>
@@ -2028,7 +2046,7 @@
     <t>{0}向{1}發送飛劍傳書，邀請其入住{2}</t>
   </si>
   <si>
-    <t>MID&amp;132</t>
+    <t>MID&amp;134</t>
   </si>
   <si>
     <t>Cave_NeedJiuguanShengji</t>
@@ -2040,7 +2058,7 @@
     <t>酒館入住人數已滿，請升級酒館！</t>
   </si>
   <si>
-    <t>MID&amp;133</t>
+    <t>MID&amp;135</t>
   </si>
   <si>
     <t>Cave_YjQlDf</t>
@@ -2075,7 +2093,7 @@
     <t>已經將{0}請離出洞府！</t>
   </si>
   <si>
-    <t>MID&amp;134</t>
+    <t>MID&amp;136</t>
   </si>
   <si>
     <t>Cave_Q_Qll</t>
@@ -2087,7 +2105,7 @@
     <t>{0}將{1}請離了{2}。</t>
   </si>
   <si>
-    <t>MID&amp;135</t>
+    <t>MID&amp;137</t>
   </si>
   <si>
     <t>Cave_ShuomingOnceTips</t>
@@ -2138,7 +2156,7 @@
     <t>（該說明只出現一次，後續需要閱讀可到更新公告【2.0搶鮮體驗版】查看）</t>
   </si>
   <si>
-    <t>MID&amp;136</t>
+    <t>MID&amp;138</t>
   </si>
   <si>
     <t>Cave_pos</t>
@@ -2147,7 +2165,7 @@
     <t>位置</t>
   </si>
   <si>
-    <t>MID&amp;137</t>
+    <t>MID&amp;139</t>
   </si>
   <si>
     <t>Cave_rota</t>
@@ -2159,7 +2177,7 @@
     <t>旋轉</t>
   </si>
   <si>
-    <t>MID&amp;138</t>
+    <t>MID&amp;140</t>
   </si>
   <si>
     <t>Cave_scale</t>
@@ -2171,7 +2189,7 @@
     <t>縮放</t>
   </si>
   <si>
-    <t>MID&amp;139</t>
+    <t>MID&amp;141</t>
   </si>
   <si>
     <t>Cave_ClickCheckPosi</t>
@@ -2183,7 +2201,7 @@
     <t>點擊確定位置</t>
   </si>
   <si>
-    <t>MID&amp;140</t>
+    <t>MID&amp;142</t>
   </si>
   <si>
     <t>Cave_ClickOutCangku</t>
@@ -2195,7 +2213,7 @@
     <t>點擊放回倉庫位置</t>
   </si>
   <si>
-    <t>MID&amp;141</t>
+    <t>MID&amp;143</t>
   </si>
   <si>
     <t>Cave_ImageFile</t>
@@ -2207,7 +2225,7 @@
     <t>圖片檔</t>
   </si>
   <si>
-    <t>MID&amp;142</t>
+    <t>MID&amp;144</t>
   </si>
   <si>
     <t>Cave_ClickChangeBuildImage</t>
@@ -2219,7 +2237,7 @@
     <t>點擊更換建築圖片</t>
   </si>
   <si>
-    <t>MID&amp;143</t>
+    <t>MID&amp;145</t>
   </si>
   <si>
     <t>Cave_OpTips</t>
@@ -2270,7 +2288,7 @@
     <t>滑鼠拖動調整位置，按住ctrl+滑鼠拖動調整大小，按住alt+滑鼠拖動調整角度</t>
   </si>
   <si>
-    <t>MID&amp;144</t>
+    <t>MID&amp;146</t>
   </si>
   <si>
     <t>Cave_Dingju</t>
@@ -2279,7 +2297,7 @@
     <t>定居</t>
   </si>
   <si>
-    <t>MID&amp;145</t>
+    <t>MID&amp;147</t>
   </si>
   <si>
     <t>Cave_DingjuShibai1</t>
@@ -2291,7 +2309,7 @@
     <t>此處有其他建築啦，無法定居！</t>
   </si>
   <si>
-    <t>MID&amp;146</t>
+    <t>MID&amp;148</t>
   </si>
   <si>
     <t>Cave_DingjuShibai2</t>
@@ -2303,7 +2321,7 @@
     <t>此處無法定居！</t>
   </si>
   <si>
-    <t>MID&amp;147</t>
+    <t>MID&amp;149</t>
   </si>
   <si>
     <t>Cave_QueDingCavePosi</t>
@@ -2315,7 +2333,7 @@
     <t>確定在此定居嗎？</t>
   </si>
   <si>
-    <t>MID&amp;148</t>
+    <t>MID&amp;150</t>
   </si>
   <si>
     <t>Cave_OkCavePosi</t>
@@ -2327,7 +2345,7 @@
     <t>貴客，洞府為您造好了，我們先撤了！</t>
   </si>
   <si>
-    <t>MID&amp;149</t>
+    <t>MID&amp;151</t>
   </si>
   <si>
     <t>Cave_GoHome</t>
@@ -2336,7 +2354,7 @@
     <t>回家</t>
   </si>
   <si>
-    <t>MID&amp;150</t>
+    <t>MID&amp;152</t>
   </si>
   <si>
     <t>Cave_BuyDram1</t>
@@ -2348,7 +2366,7 @@
     <t>道友還沒想好要在哪裡定居嗎？ 我覺得永恆冰原不錯哦！</t>
   </si>
   <si>
-    <t>MID&amp;151</t>
+    <t>MID&amp;153</t>
   </si>
   <si>
     <t>Cave_BuyDram2</t>
@@ -2360,7 +2378,7 @@
     <t>道友是在一個地方呆膩了，想更換洞府位置了嗎？</t>
   </si>
   <si>
-    <t>MID&amp;152</t>
+    <t>MID&amp;154</t>
   </si>
   <si>
     <t>Cave_BuyDram3</t>
@@ -2372,7 +2390,7 @@
     <t>是否要更換洞府住址？</t>
   </si>
   <si>
-    <t>MID&amp;153</t>
+    <t>MID&amp;155</t>
   </si>
   <si>
     <t>Cave_BuyDram4</t>
@@ -2384,7 +2402,7 @@
     <t>這裡出售各種各樣的洞天福地，還提供無限次免費搬家服務，道友可是要來選購的？</t>
   </si>
   <si>
-    <t>MID&amp;154</t>
+    <t>MID&amp;156</t>
   </si>
   <si>
     <t>Cave_BuyDram5</t>
@@ -2396,7 +2414,7 @@
     <t>是否要選購洞府？</t>
   </si>
   <si>
-    <t>MID&amp;155</t>
+    <t>MID&amp;157</t>
   </si>
   <si>
     <t>Cave_BuyDram6</t>
@@ -2408,7 +2426,7 @@
     <t>仙居樓</t>
   </si>
   <si>
-    <t>MID&amp;156</t>
+    <t>MID&amp;158</t>
   </si>
   <si>
     <t>Cave_BuyDram7</t>
@@ -2420,7 +2438,7 @@
     <t>購買洞府</t>
   </si>
   <si>
-    <t>MID&amp;157</t>
+    <t>MID&amp;159</t>
   </si>
   <si>
     <t>Cave_BuyDram8</t>
@@ -2471,7 +2489,7 @@
     <t>確定花費{0}靈石購買{1}？</t>
   </si>
   <si>
-    <t>MID&amp;158</t>
+    <t>MID&amp;160</t>
   </si>
   <si>
     <t>Cave_beijingName1</t>
@@ -2483,7 +2501,7 @@
     <t>小橋流水</t>
   </si>
   <si>
-    <t>MID&amp;159</t>
+    <t>MID&amp;161</t>
   </si>
   <si>
     <t>Cave_beijingName2</t>
@@ -2492,7 +2510,7 @@
     <t>冰天雪地</t>
   </si>
   <si>
-    <t>MID&amp;160</t>
+    <t>MID&amp;162</t>
   </si>
   <si>
     <t>Cave_beijingName3</t>
@@ -2504,7 +2522,7 @@
     <t>寒極荒漠</t>
   </si>
   <si>
-    <t>MID&amp;161</t>
+    <t>MID&amp;163</t>
   </si>
   <si>
     <t>Cave_BuyDram9</t>
@@ -2516,7 +2534,7 @@
     <t>沒靈石來湊什麼熱鬧，你是想來白嫖的嗎？</t>
   </si>
   <si>
-    <t>MID&amp;162</t>
+    <t>MID&amp;164</t>
   </si>
   <si>
     <t>Cave_BuyDram10</t>
@@ -2528,7 +2546,7 @@
     <t>這靈石我就先收下了，道友可前往想要建造洞府的地方，點擊螢幕右方的建造按鈕即可！</t>
   </si>
   <si>
-    <t>MID&amp;163</t>
+    <t>MID&amp;165</t>
   </si>
   <si>
     <t>Cave_BuyDram11</t>
@@ -2537,7 +2555,7 @@
     <t>的洞府</t>
   </si>
   <si>
-    <t>MID&amp;164</t>
+    <t>MID&amp;166</t>
   </si>
   <si>
     <t>Cave_HelpText1</t>
@@ -2546,7 +2564,7 @@
     <t>更新洞府</t>
   </si>
   <si>
-    <t>MID&amp;165</t>
+    <t>MID&amp;167</t>
   </si>
   <si>
     <t>Cave_HelpText2</t>
@@ -2788,7 +2806,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;166</t>
+    <t>MID&amp;168</t>
   </si>
   <si>
     <t>Cave_HelpText3</t>
@@ -2800,7 +2818,7 @@
     <t>前往B站關注</t>
   </si>
   <si>
-    <t>MID&amp;167</t>
+    <t>MID&amp;169</t>
   </si>
   <si>
     <t>Cave_HelpText4</t>
@@ -2812,7 +2830,7 @@
     <t>前往主頁參觀</t>
   </si>
   <si>
-    <t>MID&amp;168</t>
+    <t>MID&amp;170</t>
   </si>
   <si>
     <t>Cave_HelpText5</t>
@@ -2824,7 +2842,7 @@
     <t>前往3DM論壇</t>
   </si>
   <si>
-    <t>MID&amp;169</t>
+    <t>MID&amp;171</t>
   </si>
   <si>
     <t>Cave_HelpText6</t>
@@ -2833,7 +2851,7 @@
     <t>更新</t>
   </si>
   <si>
-    <t>MID&amp;170</t>
+    <t>MID&amp;172</t>
   </si>
   <si>
     <t>Cave_HelpText7</t>
@@ -2845,7 +2863,7 @@
     <t>計劃</t>
   </si>
   <si>
-    <t>MID&amp;171</t>
+    <t>MID&amp;173</t>
   </si>
   <si>
     <t>Cave_HelpText8</t>
@@ -2854,7 +2872,7 @@
     <t>洞天福地更新公告</t>
   </si>
   <si>
-    <t>MID&amp;172</t>
+    <t>MID&amp;174</t>
   </si>
   <si>
     <t>Cave_HelpText9</t>
@@ -2866,7 +2884,7 @@
     <t>洞天福地版本計劃</t>
   </si>
   <si>
-    <t>MID&amp;173</t>
+    <t>MID&amp;175</t>
   </si>
   <si>
     <t>Cave_HelpText10</t>
@@ -2997,7 +3015,7 @@
     <t>邀請說明：邀請NPC入住洞府，NPC將在下個月做出回復，回復之前將為其預留一間客房。 下個月NPC若回復拒絕，此客房可重新邀請其他NPC;若NPC回復接受，NPC將入住並佔用該客房。 入住的NPC會經常在洞府逗留。</t>
   </si>
   <si>
-    <t>MID&amp;174</t>
+    <t>MID&amp;176</t>
   </si>
   <si>
     <t>Cave_HelpText11</t>
@@ -3006,7 +3024,7 @@
     <t>依次</t>
   </si>
   <si>
-    <t>MID&amp;175</t>
+    <t>MID&amp;177</t>
   </si>
   <si>
     <t>Cave_HelpText12</t>
@@ -3018,7 +3036,7 @@
     <t>下一階段</t>
   </si>
   <si>
-    <t>MID&amp;176</t>
+    <t>MID&amp;178</t>
   </si>
   <si>
     <t>Cave_HelpText13</t>
@@ -3027,7 +3045,7 @@
     <t>已更新</t>
   </si>
   <si>
-    <t>MID&amp;177</t>
+    <t>MID&amp;179</t>
   </si>
   <si>
     <t>Cave_HelpText14</t>
@@ -3039,7 +3057,7 @@
     <t>搶鮮體驗版</t>
   </si>
   <si>
-    <t>MID&amp;178</t>
+    <t>MID&amp;180</t>
   </si>
   <si>
     <t>Cave_HelpText15</t>
@@ -3114,7 +3132,7 @@
     <t>{0}年{1}月{2}日{3}時</t>
   </si>
   <si>
-    <t>MID&amp;179</t>
+    <t>MID&amp;181</t>
   </si>
   <si>
     <t>Cave_HelpYudao1</t>
@@ -3175,7 +3193,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;180</t>
+    <t>MID&amp;182</t>
   </si>
   <si>
     <t>Cave_HelpYudao2</t>
@@ -3254,7 +3272,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;181</t>
+    <t>MID&amp;183</t>
   </si>
   <si>
     <t>Cave_HelpYudao3</t>
@@ -3299,7 +3317,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;182</t>
+    <t>MID&amp;184</t>
   </si>
   <si>
     <t>Cave_HelpYudao4</t>
@@ -3367,7 +3385,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;183</t>
+    <t>MID&amp;185</t>
   </si>
   <si>
     <t>Cave_HelpYudao5</t>
@@ -3469,7 +3487,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;184</t>
+    <t>MID&amp;186</t>
   </si>
   <si>
     <t>Cave_HelpYudao6</t>
@@ -3563,7 +3581,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;185</t>
+    <t>MID&amp;187</t>
   </si>
   <si>
     <t>Cave_HelpYudao7</t>
@@ -3699,7 +3717,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;186</t>
+    <t>MID&amp;188</t>
   </si>
   <si>
     <t>Cave_HelpYudao8</t>
@@ -3711,7 +3729,7 @@
     <t>增加洞府購買功能，以及洞府建設框架和主要建築功能。</t>
   </si>
   <si>
-    <t>MID&amp;187</t>
+    <t>MID&amp;189</t>
   </si>
   <si>
     <t>Cave_HelpGengxin1</t>
@@ -3861,7 +3879,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;188</t>
+    <t>MID&amp;190</t>
   </si>
   <si>
     <t>Cave_HelpGengxin2</t>
@@ -4271,7 +4289,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;189</t>
+    <t>MID&amp;191</t>
   </si>
   <si>
     <t>Cave_HelpGengxin3</t>
@@ -4649,7 +4667,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;190</t>
+    <t>MID&amp;192</t>
   </si>
   <si>
     <t>Cave_HelpGengxin4</t>
@@ -4945,7 +4963,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;191</t>
+    <t>MID&amp;193</t>
   </si>
   <si>
     <t>Cave_HelpGengxin5</t>
@@ -5085,7 +5103,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;192</t>
+    <t>MID&amp;194</t>
   </si>
   <si>
     <t>Cave_HelpGengxin6</t>
@@ -5853,7 +5871,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;193</t>
+    <t>MID&amp;195</t>
   </si>
   <si>
     <t>Cave_HelpGengxin7</t>
@@ -6043,7 +6061,7 @@
     </r>
   </si>
   <si>
-    <t>MID&amp;194</t>
+    <t>MID&amp;196</t>
   </si>
   <si>
     <t>Cave_HelpGengxin8</t>
@@ -6183,6 +6201,33 @@
       </rPr>
       <t>、增加支持繁體中文。</t>
     </r>
+  </si>
+  <si>
+    <t>MID&amp;197</t>
+  </si>
+  <si>
+    <t>npc_name42685192</t>
+  </si>
+  <si>
+    <t>八荒大鬼</t>
+  </si>
+  <si>
+    <t>MID&amp;198</t>
+  </si>
+  <si>
+    <t>drama_option42685185</t>
+  </si>
+  <si>
+    <t>收为道侣</t>
+  </si>
+  <si>
+    <t>MID&amp;199</t>
+  </si>
+  <si>
+    <t>drama_option42685186</t>
+  </si>
+  <si>
+    <t>继续囚禁</t>
   </si>
 </sst>
 </file>
@@ -6228,27 +6273,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6261,16 +6299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6279,6 +6317,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6293,52 +6345,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -6347,7 +6353,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6362,7 +6376,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6391,13 +6436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6409,19 +6460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6439,25 +6496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6475,13 +6520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6493,7 +6538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6505,19 +6568,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6529,49 +6616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6586,25 +6631,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6638,23 +6674,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6664,6 +6700,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6685,148 +6730,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7163,10 +7208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -7728,1424 +7773,1424 @@
       <c r="B33" t="s">
         <v>152</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E33" t="s">
-        <v>154</v>
+      <c r="E33" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
         <v>155</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" t="s">
-        <v>159</v>
+      <c r="D34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
         <v>160</v>
-      </c>
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
         <v>163</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>164</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>165</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
         <v>168</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" t="s">
         <v>169</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>170</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" t="s">
+      <c r="E38" t="s">
         <v>173</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
         <v>176</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
+    <row r="40" customHeight="1" spans="1:3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
       <c r="B40" t="s">
         <v>180</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" t="s">
         <v>182</v>
       </c>
-      <c r="E40" t="s">
+      <c r="B41" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" t="s">
+      <c r="C41" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
         <v>189</v>
-      </c>
-      <c r="B42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
         <v>191</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>192</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>193</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>194</v>
-      </c>
-      <c r="E43" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" t="s">
         <v>196</v>
       </c>
-      <c r="B44" t="s">
-        <v>197</v>
-      </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" t="s">
         <v>201</v>
-      </c>
-      <c r="B45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
         <v>206</v>
-      </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
         <v>209</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>210</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>211</v>
-      </c>
-      <c r="D47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" t="s">
         <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:5">
       <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
         <v>219</v>
-      </c>
-      <c r="B49" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:5">
       <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" t="s">
         <v>223</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>224</v>
-      </c>
-      <c r="C50" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" t="s">
         <v>228</v>
-      </c>
-      <c r="B51" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" t="s">
         <v>233</v>
-      </c>
-      <c r="B52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" t="s">
         <v>238</v>
-      </c>
-      <c r="B53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E53" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E54" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
         <v>248</v>
-      </c>
-      <c r="B55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" t="s">
-        <v>251</v>
-      </c>
-      <c r="E55" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
         <v>253</v>
-      </c>
-      <c r="B56" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" t="s">
         <v>258</v>
-      </c>
-      <c r="B57" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E57" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s">
         <v>260</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>261</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>262</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>263</v>
-      </c>
-      <c r="E58" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" t="s">
         <v>265</v>
       </c>
-      <c r="B59" t="s">
-        <v>266</v>
-      </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
       <c r="A60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" t="s">
         <v>270</v>
-      </c>
-      <c r="B60" t="s">
-        <v>271</v>
-      </c>
-      <c r="C60" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" t="s">
-        <v>273</v>
-      </c>
-      <c r="E60" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
       <c r="A61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" t="s">
         <v>275</v>
-      </c>
-      <c r="B61" t="s">
-        <v>276</v>
-      </c>
-      <c r="C61" t="s">
-        <v>277</v>
-      </c>
-      <c r="D61" t="s">
-        <v>278</v>
-      </c>
-      <c r="E61" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
       <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" t="s">
         <v>280</v>
-      </c>
-      <c r="B62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C62" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" t="s">
-        <v>283</v>
-      </c>
-      <c r="E62" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
       <c r="A63" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E63" t="s">
         <v>285</v>
-      </c>
-      <c r="B63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C63" t="s">
-        <v>287</v>
-      </c>
-      <c r="D63" t="s">
-        <v>288</v>
-      </c>
-      <c r="E63" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:5">
       <c r="A64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" t="s">
         <v>290</v>
-      </c>
-      <c r="B64" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" t="s">
-        <v>293</v>
-      </c>
-      <c r="E64" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:5">
       <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" t="s">
         <v>295</v>
-      </c>
-      <c r="B65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C65" t="s">
-        <v>297</v>
-      </c>
-      <c r="D65" t="s">
-        <v>298</v>
-      </c>
-      <c r="E65" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
       <c r="A66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" t="s">
         <v>300</v>
-      </c>
-      <c r="B66" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:5">
       <c r="A67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" t="s">
+        <v>303</v>
+      </c>
+      <c r="D67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" t="s">
         <v>305</v>
-      </c>
-      <c r="B67" t="s">
-        <v>306</v>
-      </c>
-      <c r="C67" t="s">
-        <v>307</v>
-      </c>
-      <c r="D67" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:5">
       <c r="A68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" t="s">
         <v>310</v>
-      </c>
-      <c r="B68" t="s">
-        <v>311</v>
-      </c>
-      <c r="C68" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" t="s">
-        <v>313</v>
-      </c>
-      <c r="E68" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:5">
       <c r="A69" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" t="s">
         <v>315</v>
-      </c>
-      <c r="B69" t="s">
-        <v>316</v>
-      </c>
-      <c r="C69" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" t="s">
-        <v>318</v>
-      </c>
-      <c r="E69" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
       <c r="A70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" t="s">
         <v>320</v>
-      </c>
-      <c r="B70" t="s">
-        <v>321</v>
-      </c>
-      <c r="C70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>318</v>
-      </c>
-      <c r="E70" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
       <c r="A71" t="s">
+        <v>321</v>
+      </c>
+      <c r="B71" t="s">
         <v>322</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>323</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>324</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>325</v>
-      </c>
-      <c r="E71" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
       <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" t="s">
         <v>327</v>
       </c>
-      <c r="B72" t="s">
-        <v>328</v>
-      </c>
       <c r="C72" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D72" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
       <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" t="s">
         <v>332</v>
-      </c>
-      <c r="B73" t="s">
-        <v>333</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:5">
       <c r="A74" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" t="s">
         <v>337</v>
-      </c>
-      <c r="B74" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" t="s">
-        <v>339</v>
-      </c>
-      <c r="D74" t="s">
-        <v>340</v>
-      </c>
-      <c r="E74" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
       <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B75" t="s">
-        <v>343</v>
-      </c>
-      <c r="C75" t="s">
-        <v>344</v>
-      </c>
-      <c r="D75" t="s">
-        <v>345</v>
-      </c>
-      <c r="E75" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
       <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" t="s">
         <v>347</v>
-      </c>
-      <c r="B76" t="s">
-        <v>348</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
       <c r="A77" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" t="s">
         <v>350</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>351</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>352</v>
-      </c>
-      <c r="D77" t="s">
-        <v>352</v>
-      </c>
-      <c r="E77" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
       <c r="A78" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" t="s">
         <v>354</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C78" t="s">
-        <v>356</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E78" t="s">
-        <v>358</v>
+      <c r="D78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
       <c r="A79" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79" t="s">
+        <v>357</v>
+      </c>
+      <c r="C79" t="s">
+        <v>358</v>
+      </c>
+      <c r="D79" t="s">
+        <v>358</v>
+      </c>
+      <c r="E79" t="s">
         <v>359</v>
-      </c>
-      <c r="B79" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" t="s">
-        <v>361</v>
-      </c>
-      <c r="D79" t="s">
-        <v>362</v>
-      </c>
-      <c r="E79" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
       <c r="A80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B80" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>364</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D80" t="s">
-        <v>366</v>
-      </c>
-      <c r="E80" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
       <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" t="s">
         <v>367</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>368</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D81" t="s">
-        <v>369</v>
-      </c>
       <c r="E81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:5">
       <c r="A82" t="s">
+        <v>369</v>
+      </c>
+      <c r="B82" t="s">
         <v>370</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" t="s">
         <v>372</v>
       </c>
-      <c r="D82" t="s">
-        <v>373</v>
-      </c>
       <c r="E82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
       <c r="A83" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
         <v>374</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C83" t="s">
-        <v>376</v>
-      </c>
       <c r="D83" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
       <c r="A84" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>379</v>
       </c>
-      <c r="C84" t="s">
-        <v>380</v>
-      </c>
-      <c r="D84" t="s">
-        <v>381</v>
-      </c>
       <c r="E84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
       <c r="A85" t="s">
+        <v>380</v>
+      </c>
+      <c r="B85" t="s">
+        <v>381</v>
+      </c>
+      <c r="C85" t="s">
         <v>382</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>383</v>
       </c>
-      <c r="C85" t="s">
-        <v>384</v>
-      </c>
-      <c r="D85" t="s">
-        <v>384</v>
-      </c>
       <c r="E85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
       <c r="A86" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" t="s">
         <v>385</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>386</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>387</v>
       </c>
-      <c r="D86" t="s">
-        <v>388</v>
-      </c>
       <c r="E86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
       <c r="A87" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" t="s">
         <v>389</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>390</v>
       </c>
-      <c r="C87" t="s">
-        <v>391</v>
-      </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
       <c r="A88" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" t="s">
         <v>393</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>394</v>
       </c>
-      <c r="C88" t="s">
-        <v>395</v>
-      </c>
-      <c r="D88" t="s">
-        <v>395</v>
-      </c>
       <c r="E88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
       <c r="A89" t="s">
+        <v>395</v>
+      </c>
+      <c r="B89" t="s">
         <v>396</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>397</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>398</v>
       </c>
-      <c r="D89" t="s">
-        <v>399</v>
-      </c>
       <c r="E89" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
       <c r="A90" t="s">
+        <v>399</v>
+      </c>
+      <c r="B90" t="s">
         <v>400</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>401</v>
       </c>
-      <c r="C90" t="s">
-        <v>402</v>
-      </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E90" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
       <c r="A91" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" t="s">
         <v>404</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>405</v>
       </c>
-      <c r="C91" t="s">
-        <v>406</v>
-      </c>
-      <c r="D91" t="s">
-        <v>407</v>
-      </c>
       <c r="E91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
       <c r="A92" t="s">
+        <v>406</v>
+      </c>
+      <c r="B92" t="s">
+        <v>407</v>
+      </c>
+      <c r="C92" t="s">
         <v>408</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>409</v>
       </c>
-      <c r="C92" t="s">
-        <v>410</v>
-      </c>
-      <c r="D92" t="s">
-        <v>411</v>
-      </c>
       <c r="E92" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
       <c r="A93" t="s">
+        <v>410</v>
+      </c>
+      <c r="B93" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" t="s">
         <v>412</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>413</v>
       </c>
-      <c r="C93" t="s">
-        <v>414</v>
-      </c>
-      <c r="D93" t="s">
-        <v>415</v>
-      </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
       <c r="A94" t="s">
+        <v>414</v>
+      </c>
+      <c r="B94" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" t="s">
         <v>416</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>417</v>
       </c>
-      <c r="C94" t="s">
-        <v>418</v>
-      </c>
-      <c r="D94" t="s">
-        <v>419</v>
-      </c>
       <c r="E94" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
       <c r="A95" t="s">
+        <v>418</v>
+      </c>
+      <c r="B95" t="s">
+        <v>419</v>
+      </c>
+      <c r="C95" t="s">
         <v>420</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>421</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D95" t="s">
-        <v>423</v>
-      </c>
       <c r="E95" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
       <c r="A96" t="s">
+        <v>422</v>
+      </c>
+      <c r="B96" t="s">
+        <v>423</v>
+      </c>
+      <c r="C96" t="s">
         <v>424</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>425</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D96" t="s">
-        <v>427</v>
-      </c>
       <c r="E96" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
       <c r="A97" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" t="s">
+        <v>427</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>429</v>
       </c>
-      <c r="C97" t="s">
-        <v>430</v>
-      </c>
-      <c r="D97" t="s">
-        <v>431</v>
-      </c>
       <c r="E97" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
       <c r="A98" t="s">
+        <v>430</v>
+      </c>
+      <c r="B98" t="s">
+        <v>431</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>433</v>
       </c>
-      <c r="C98" t="s">
-        <v>434</v>
-      </c>
-      <c r="D98" t="s">
-        <v>435</v>
-      </c>
       <c r="E98" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
       <c r="A99" t="s">
+        <v>434</v>
+      </c>
+      <c r="B99" t="s">
+        <v>435</v>
+      </c>
+      <c r="C99" t="s">
         <v>436</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>437</v>
       </c>
-      <c r="C99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D99" t="s">
-        <v>439</v>
-      </c>
       <c r="E99" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
       <c r="A100" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" t="s">
+        <v>439</v>
+      </c>
+      <c r="C100" t="s">
         <v>440</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>441</v>
       </c>
-      <c r="C100" t="s">
-        <v>442</v>
-      </c>
-      <c r="D100" t="s">
-        <v>442</v>
-      </c>
       <c r="E100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
       <c r="A101" t="s">
+        <v>442</v>
+      </c>
+      <c r="B101" t="s">
         <v>443</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>444</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>445</v>
       </c>
-      <c r="D101" t="s">
-        <v>446</v>
-      </c>
       <c r="E101" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:5">
       <c r="A102" t="s">
+        <v>446</v>
+      </c>
+      <c r="B102" t="s">
         <v>447</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>448</v>
       </c>
-      <c r="C102" t="s">
-        <v>449</v>
-      </c>
       <c r="D102" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E102" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:5">
       <c r="A103" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C103" t="s">
         <v>451</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>452</v>
       </c>
-      <c r="C103" t="s">
-        <v>453</v>
-      </c>
-      <c r="D103" t="s">
-        <v>454</v>
-      </c>
       <c r="E103" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:5">
       <c r="A104" t="s">
+        <v>453</v>
+      </c>
+      <c r="B104" t="s">
+        <v>454</v>
+      </c>
+      <c r="C104" t="s">
         <v>455</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>456</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D104" t="s">
-        <v>458</v>
-      </c>
       <c r="E104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:5">
       <c r="A105" t="s">
+        <v>457</v>
+      </c>
+      <c r="B105" t="s">
+        <v>458</v>
+      </c>
+      <c r="C105" t="s">
         <v>459</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>460</v>
       </c>
-      <c r="C105" t="s">
-        <v>461</v>
-      </c>
-      <c r="D105" t="s">
-        <v>462</v>
-      </c>
       <c r="E105" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:5">
       <c r="A106" t="s">
+        <v>461</v>
+      </c>
+      <c r="B106" t="s">
+        <v>462</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>464</v>
       </c>
-      <c r="C106" t="s">
-        <v>465</v>
-      </c>
-      <c r="D106" t="s">
-        <v>466</v>
-      </c>
       <c r="E106" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
       <c r="A107" t="s">
+        <v>465</v>
+      </c>
+      <c r="B107" t="s">
+        <v>466</v>
+      </c>
+      <c r="C107" t="s">
         <v>467</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>468</v>
       </c>
-      <c r="C107" t="s">
-        <v>469</v>
-      </c>
-      <c r="D107" t="s">
-        <v>470</v>
-      </c>
       <c r="E107" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:5">
       <c r="A108" t="s">
+        <v>469</v>
+      </c>
+      <c r="B108" t="s">
+        <v>470</v>
+      </c>
+      <c r="C108" t="s">
         <v>471</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" t="s">
         <v>472</v>
       </c>
-      <c r="C108" t="s">
-        <v>473</v>
-      </c>
-      <c r="D108" t="s">
-        <v>474</v>
-      </c>
       <c r="E108" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:5">
       <c r="A109" t="s">
+        <v>473</v>
+      </c>
+      <c r="B109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C109" t="s">
         <v>475</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>476</v>
       </c>
-      <c r="C109" t="s">
-        <v>477</v>
-      </c>
-      <c r="D109" t="s">
-        <v>478</v>
-      </c>
       <c r="E109" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:5">
       <c r="A110" t="s">
+        <v>477</v>
+      </c>
+      <c r="B110" t="s">
+        <v>478</v>
+      </c>
+      <c r="C110" t="s">
         <v>479</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>480</v>
       </c>
-      <c r="C110" t="s">
-        <v>481</v>
-      </c>
-      <c r="D110" t="s">
-        <v>482</v>
-      </c>
       <c r="E110" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:5">
       <c r="A111" t="s">
+        <v>481</v>
+      </c>
+      <c r="B111" t="s">
+        <v>482</v>
+      </c>
+      <c r="C111" t="s">
         <v>483</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>484</v>
       </c>
-      <c r="C111" t="s">
-        <v>485</v>
-      </c>
-      <c r="D111" t="s">
-        <v>486</v>
-      </c>
       <c r="E111" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:5">
       <c r="A112" t="s">
+        <v>485</v>
+      </c>
+      <c r="B112" t="s">
+        <v>486</v>
+      </c>
+      <c r="C112" t="s">
         <v>487</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>488</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D112" t="s">
-        <v>490</v>
-      </c>
       <c r="E112" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:5">
       <c r="A113" t="s">
+        <v>489</v>
+      </c>
+      <c r="B113" t="s">
+        <v>490</v>
+      </c>
+      <c r="C113" t="s">
         <v>491</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>492</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D113" t="s">
-        <v>494</v>
-      </c>
       <c r="E113" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:5">
       <c r="A114" t="s">
+        <v>493</v>
+      </c>
+      <c r="B114" t="s">
+        <v>494</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>496</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D114" t="s">
-        <v>498</v>
-      </c>
       <c r="E114" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:5">
       <c r="A115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B115" t="s">
+        <v>498</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>500</v>
       </c>
-      <c r="C115" t="s">
-        <v>501</v>
-      </c>
-      <c r="D115" t="s">
-        <v>502</v>
-      </c>
       <c r="E115" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:5">
       <c r="A116" t="s">
+        <v>501</v>
+      </c>
+      <c r="B116" t="s">
+        <v>502</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>504</v>
       </c>
-      <c r="C116" t="s">
-        <v>505</v>
-      </c>
-      <c r="D116" t="s">
-        <v>505</v>
-      </c>
       <c r="E116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:5">
       <c r="A117" t="s">
+        <v>505</v>
+      </c>
+      <c r="B117" t="s">
         <v>506</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>507</v>
-      </c>
-      <c r="C117" t="s">
-        <v>508</v>
       </c>
       <c r="D117" t="s">
         <v>508</v>
@@ -9165,157 +9210,157 @@
         <v>511</v>
       </c>
       <c r="D118" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E118" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:5">
       <c r="A119" t="s">
+        <v>512</v>
+      </c>
+      <c r="B119" t="s">
         <v>513</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>514</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>516</v>
+      <c r="D119" t="s">
+        <v>514</v>
+      </c>
+      <c r="E119" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:5">
       <c r="A120" t="s">
+        <v>515</v>
+      </c>
+      <c r="B120" t="s">
+        <v>516</v>
+      </c>
+      <c r="C120" t="s">
         <v>517</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>518</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D120" t="s">
-        <v>520</v>
-      </c>
       <c r="E120" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:5">
       <c r="A121" t="s">
+        <v>519</v>
+      </c>
+      <c r="B121" t="s">
+        <v>520</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D121" t="s">
-        <v>524</v>
-      </c>
-      <c r="E121" t="s">
-        <v>524</v>
+      <c r="E121" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:5">
       <c r="A122" t="s">
+        <v>523</v>
+      </c>
+      <c r="B122" t="s">
+        <v>524</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>526</v>
       </c>
-      <c r="C122" t="s">
-        <v>527</v>
-      </c>
-      <c r="D122" t="s">
-        <v>528</v>
-      </c>
       <c r="E122" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:5">
       <c r="A123" t="s">
+        <v>527</v>
+      </c>
+      <c r="B123" t="s">
+        <v>528</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>530</v>
       </c>
-      <c r="C123" t="s">
-        <v>531</v>
-      </c>
-      <c r="D123" t="s">
-        <v>532</v>
-      </c>
       <c r="E123" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:5">
       <c r="A124" t="s">
+        <v>531</v>
+      </c>
+      <c r="B124" t="s">
+        <v>532</v>
+      </c>
+      <c r="C124" t="s">
         <v>533</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>534</v>
       </c>
-      <c r="C124" t="s">
-        <v>535</v>
-      </c>
-      <c r="D124" t="s">
-        <v>536</v>
-      </c>
       <c r="E124" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:5">
       <c r="A125" t="s">
+        <v>535</v>
+      </c>
+      <c r="B125" t="s">
+        <v>536</v>
+      </c>
+      <c r="C125" t="s">
         <v>537</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>538</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D125" t="s">
-        <v>540</v>
-      </c>
       <c r="E125" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:5">
       <c r="A126" t="s">
+        <v>539</v>
+      </c>
+      <c r="B126" t="s">
+        <v>540</v>
+      </c>
+      <c r="C126" t="s">
         <v>541</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>542</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D126" t="s">
-        <v>543</v>
-      </c>
       <c r="E126" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:5">
       <c r="A127" t="s">
+        <v>543</v>
+      </c>
+      <c r="B127" t="s">
         <v>544</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="D127" t="s">
         <v>546</v>
@@ -9331,671 +9376,671 @@
       <c r="B128" t="s">
         <v>548</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>549</v>
       </c>
       <c r="D128" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E128" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:5">
       <c r="A129" t="s">
+        <v>550</v>
+      </c>
+      <c r="B129" t="s">
         <v>551</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C129" t="s">
-        <v>553</v>
-      </c>
       <c r="D129" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E129" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:5">
       <c r="A130" t="s">
+        <v>553</v>
+      </c>
+      <c r="B130" t="s">
         <v>554</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>555</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>556</v>
       </c>
-      <c r="D130" t="s">
-        <v>557</v>
-      </c>
       <c r="E130" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:5">
       <c r="A131" t="s">
+        <v>557</v>
+      </c>
+      <c r="B131" t="s">
         <v>558</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>559</v>
       </c>
-      <c r="C131" t="s">
-        <v>560</v>
-      </c>
       <c r="D131" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E131" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:5">
       <c r="A132" t="s">
+        <v>560</v>
+      </c>
+      <c r="B132" t="s">
+        <v>561</v>
+      </c>
+      <c r="C132" t="s">
         <v>562</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>563</v>
       </c>
-      <c r="C132" t="s">
-        <v>564</v>
-      </c>
-      <c r="D132" t="s">
-        <v>565</v>
-      </c>
       <c r="E132" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:5">
       <c r="A133" t="s">
+        <v>564</v>
+      </c>
+      <c r="B133" t="s">
+        <v>565</v>
+      </c>
+      <c r="C133" t="s">
         <v>566</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>567</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D133" t="s">
-        <v>569</v>
-      </c>
       <c r="E133" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:5">
       <c r="A134" t="s">
+        <v>568</v>
+      </c>
+      <c r="B134" t="s">
+        <v>569</v>
+      </c>
+      <c r="C134" t="s">
         <v>570</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>571</v>
       </c>
-      <c r="C134" t="s">
-        <v>572</v>
-      </c>
-      <c r="D134" t="s">
-        <v>573</v>
-      </c>
       <c r="E134" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:5">
       <c r="A135" t="s">
+        <v>572</v>
+      </c>
+      <c r="B135" t="s">
+        <v>573</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>575</v>
       </c>
-      <c r="C135" t="s">
-        <v>576</v>
-      </c>
-      <c r="D135" t="s">
-        <v>577</v>
-      </c>
       <c r="E135" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:5">
       <c r="A136" t="s">
+        <v>576</v>
+      </c>
+      <c r="B136" t="s">
+        <v>577</v>
+      </c>
+      <c r="C136" t="s">
         <v>578</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>579</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D136" t="s">
-        <v>581</v>
-      </c>
       <c r="E136" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:5">
       <c r="A137" t="s">
+        <v>580</v>
+      </c>
+      <c r="B137" t="s">
+        <v>581</v>
+      </c>
+      <c r="C137" t="s">
         <v>582</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
         <v>583</v>
       </c>
-      <c r="C137" t="s">
-        <v>584</v>
-      </c>
-      <c r="D137" t="s">
-        <v>585</v>
-      </c>
       <c r="E137" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:5">
       <c r="A138" t="s">
+        <v>584</v>
+      </c>
+      <c r="B138" t="s">
+        <v>585</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>587</v>
       </c>
-      <c r="C138" t="s">
-        <v>588</v>
-      </c>
-      <c r="D138" t="s">
-        <v>589</v>
-      </c>
       <c r="E138" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:5">
       <c r="A139" t="s">
+        <v>588</v>
+      </c>
+      <c r="B139" t="s">
+        <v>589</v>
+      </c>
+      <c r="C139" t="s">
         <v>590</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>591</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D139" t="s">
-        <v>592</v>
-      </c>
       <c r="E139" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:5">
       <c r="A140" t="s">
+        <v>592</v>
+      </c>
+      <c r="B140" t="s">
         <v>593</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>594</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" t="s">
         <v>595</v>
       </c>
-      <c r="D140" t="s">
-        <v>596</v>
-      </c>
       <c r="E140" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:5">
       <c r="A141" t="s">
+        <v>596</v>
+      </c>
+      <c r="B141" t="s">
         <v>597</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="D141" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E141" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:5">
       <c r="A142" t="s">
+        <v>599</v>
+      </c>
+      <c r="B142" t="s">
+        <v>600</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>602</v>
       </c>
-      <c r="C142" t="s">
-        <v>603</v>
-      </c>
-      <c r="D142" t="s">
-        <v>604</v>
-      </c>
       <c r="E142" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:5">
       <c r="A143" t="s">
+        <v>603</v>
+      </c>
+      <c r="B143" t="s">
+        <v>604</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>606</v>
       </c>
-      <c r="C143" t="s">
-        <v>607</v>
-      </c>
-      <c r="D143" t="s">
-        <v>608</v>
-      </c>
       <c r="E143" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:5">
       <c r="A144" t="s">
+        <v>607</v>
+      </c>
+      <c r="B144" t="s">
+        <v>608</v>
+      </c>
+      <c r="C144" t="s">
         <v>609</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>610</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D144" t="s">
-        <v>612</v>
-      </c>
       <c r="E144" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:5">
       <c r="A145" t="s">
+        <v>611</v>
+      </c>
+      <c r="B145" t="s">
+        <v>612</v>
+      </c>
+      <c r="C145" t="s">
         <v>613</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>614</v>
       </c>
-      <c r="C145" t="s">
-        <v>615</v>
-      </c>
-      <c r="D145" t="s">
-        <v>616</v>
-      </c>
       <c r="E145" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:5">
       <c r="A146" t="s">
+        <v>615</v>
+      </c>
+      <c r="B146" t="s">
+        <v>616</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>618</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D146" t="s">
-        <v>620</v>
-      </c>
       <c r="E146" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:5">
       <c r="A147" t="s">
+        <v>619</v>
+      </c>
+      <c r="B147" t="s">
+        <v>620</v>
+      </c>
+      <c r="C147" t="s">
         <v>621</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>622</v>
       </c>
-      <c r="C147" t="s">
-        <v>623</v>
-      </c>
-      <c r="D147" t="s">
-        <v>623</v>
-      </c>
       <c r="E147" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:5">
       <c r="A148" t="s">
+        <v>623</v>
+      </c>
+      <c r="B148" t="s">
         <v>624</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>626</v>
       </c>
-      <c r="D148" t="s">
-        <v>627</v>
-      </c>
       <c r="E148" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:5">
       <c r="A149" t="s">
+        <v>627</v>
+      </c>
+      <c r="B149" t="s">
         <v>628</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>629</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="D149" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E149" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:5">
       <c r="A150" t="s">
+        <v>630</v>
+      </c>
+      <c r="B150" t="s">
+        <v>631</v>
+      </c>
+      <c r="C150" t="s">
         <v>632</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>633</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D150" t="s">
-        <v>635</v>
-      </c>
       <c r="E150" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:5">
       <c r="A151" t="s">
+        <v>634</v>
+      </c>
+      <c r="B151" t="s">
+        <v>635</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>637</v>
       </c>
-      <c r="C151" t="s">
-        <v>638</v>
-      </c>
-      <c r="D151" t="s">
-        <v>639</v>
-      </c>
       <c r="E151" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:5">
       <c r="A152" t="s">
+        <v>638</v>
+      </c>
+      <c r="B152" t="s">
+        <v>639</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>641</v>
       </c>
-      <c r="C152" t="s">
-        <v>642</v>
-      </c>
-      <c r="D152" t="s">
-        <v>642</v>
-      </c>
       <c r="E152" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:5">
       <c r="A153" t="s">
+        <v>642</v>
+      </c>
+      <c r="B153" t="s">
         <v>643</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>644</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>645</v>
       </c>
-      <c r="D153" t="s">
-        <v>646</v>
-      </c>
       <c r="E153" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:5">
       <c r="A154" t="s">
+        <v>646</v>
+      </c>
+      <c r="B154" t="s">
         <v>647</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>648</v>
       </c>
-      <c r="C154" t="s">
-        <v>649</v>
-      </c>
       <c r="D154" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E154" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:5">
       <c r="A155" t="s">
+        <v>649</v>
+      </c>
+      <c r="B155" t="s">
+        <v>650</v>
+      </c>
+      <c r="C155" t="s">
         <v>651</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>652</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D155" t="s">
-        <v>654</v>
-      </c>
       <c r="E155" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:5">
       <c r="A156" t="s">
+        <v>653</v>
+      </c>
+      <c r="B156" t="s">
+        <v>654</v>
+      </c>
+      <c r="C156" t="s">
         <v>655</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>656</v>
       </c>
-      <c r="C156" t="s">
-        <v>657</v>
-      </c>
-      <c r="D156" t="s">
-        <v>658</v>
-      </c>
       <c r="E156" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:5">
       <c r="A157" t="s">
+        <v>657</v>
+      </c>
+      <c r="B157" t="s">
+        <v>658</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>660</v>
       </c>
-      <c r="C157" t="s">
-        <v>661</v>
-      </c>
-      <c r="D157" t="s">
-        <v>662</v>
-      </c>
       <c r="E157" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:5">
       <c r="A158" t="s">
+        <v>661</v>
+      </c>
+      <c r="B158" t="s">
+        <v>662</v>
+      </c>
+      <c r="C158" t="s">
         <v>663</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>664</v>
       </c>
-      <c r="C158" t="s">
-        <v>665</v>
-      </c>
-      <c r="D158" t="s">
-        <v>666</v>
-      </c>
       <c r="E158" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:5">
       <c r="A159" t="s">
+        <v>665</v>
+      </c>
+      <c r="B159" t="s">
+        <v>666</v>
+      </c>
+      <c r="C159" t="s">
         <v>667</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>668</v>
       </c>
-      <c r="C159" t="s">
-        <v>669</v>
-      </c>
-      <c r="D159" t="s">
-        <v>670</v>
-      </c>
       <c r="E159" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:5">
       <c r="A160" t="s">
+        <v>669</v>
+      </c>
+      <c r="B160" t="s">
+        <v>670</v>
+      </c>
+      <c r="C160" t="s">
         <v>671</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>672</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D160" t="s">
-        <v>674</v>
-      </c>
       <c r="E160" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:5">
       <c r="A161" t="s">
+        <v>673</v>
+      </c>
+      <c r="B161" t="s">
+        <v>674</v>
+      </c>
+      <c r="C161" t="s">
         <v>675</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>676</v>
       </c>
-      <c r="C161" t="s">
-        <v>677</v>
-      </c>
-      <c r="D161" t="s">
-        <v>678</v>
-      </c>
       <c r="E161" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:5">
       <c r="A162" t="s">
+        <v>677</v>
+      </c>
+      <c r="B162" t="s">
+        <v>678</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>680</v>
       </c>
-      <c r="C162" t="s">
-        <v>681</v>
-      </c>
-      <c r="D162" t="s">
-        <v>681</v>
-      </c>
       <c r="E162" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:5">
       <c r="A163" t="s">
+        <v>681</v>
+      </c>
+      <c r="B163" t="s">
         <v>682</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>683</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>684</v>
       </c>
-      <c r="D163" t="s">
-        <v>685</v>
-      </c>
       <c r="E163" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:5">
       <c r="A164" t="s">
+        <v>685</v>
+      </c>
+      <c r="B164" t="s">
         <v>686</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>687</v>
       </c>
-      <c r="C164" t="s">
-        <v>688</v>
-      </c>
       <c r="D164" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E164" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:5">
       <c r="A165" t="s">
+        <v>688</v>
+      </c>
+      <c r="B165" t="s">
+        <v>689</v>
+      </c>
+      <c r="C165" t="s">
         <v>690</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>691</v>
       </c>
-      <c r="C165" t="s">
-        <v>692</v>
-      </c>
-      <c r="D165" t="s">
-        <v>693</v>
-      </c>
       <c r="E165" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:5">
       <c r="A166" t="s">
+        <v>692</v>
+      </c>
+      <c r="B166" t="s">
+        <v>693</v>
+      </c>
+      <c r="C166" t="s">
         <v>694</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>695</v>
       </c>
-      <c r="C166" t="s">
-        <v>696</v>
-      </c>
-      <c r="D166" t="s">
-        <v>696</v>
-      </c>
       <c r="E166" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:5">
       <c r="A167" t="s">
+        <v>696</v>
+      </c>
+      <c r="B167" t="s">
         <v>697</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>698</v>
-      </c>
-      <c r="C167" t="s">
-        <v>699</v>
       </c>
       <c r="D167" t="s">
         <v>699</v>
@@ -10011,511 +10056,594 @@
       <c r="B168" t="s">
         <v>701</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" t="s">
         <v>702</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>703</v>
+      <c r="D168" t="s">
+        <v>702</v>
+      </c>
+      <c r="E168" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:5">
       <c r="A169" t="s">
+        <v>703</v>
+      </c>
+      <c r="B169" t="s">
         <v>704</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>705</v>
       </c>
-      <c r="C169" t="s">
-        <v>706</v>
-      </c>
       <c r="D169" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E169" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:5">
       <c r="A170" t="s">
+        <v>706</v>
+      </c>
+      <c r="B170" t="s">
+        <v>707</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D170" t="s">
-        <v>711</v>
-      </c>
-      <c r="E170" t="s">
-        <v>711</v>
+      <c r="E170" s="5" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:5">
       <c r="A171" t="s">
+        <v>710</v>
+      </c>
+      <c r="B171" t="s">
+        <v>711</v>
+      </c>
+      <c r="C171" t="s">
         <v>712</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D171" t="s">
         <v>713</v>
       </c>
-      <c r="C171" t="s">
-        <v>714</v>
-      </c>
-      <c r="D171" t="s">
-        <v>715</v>
-      </c>
       <c r="E171" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:5">
       <c r="A172" t="s">
+        <v>714</v>
+      </c>
+      <c r="B172" t="s">
+        <v>715</v>
+      </c>
+      <c r="C172" t="s">
         <v>716</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>717</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D172" t="s">
-        <v>718</v>
-      </c>
       <c r="E172" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:5">
       <c r="A173" t="s">
+        <v>718</v>
+      </c>
+      <c r="B173" t="s">
         <v>719</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>720</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" t="s">
         <v>721</v>
       </c>
-      <c r="D173" t="s">
-        <v>722</v>
-      </c>
       <c r="E173" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:5">
       <c r="A174" t="s">
+        <v>722</v>
+      </c>
+      <c r="B174" t="s">
         <v>723</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C174" t="s">
-        <v>725</v>
-      </c>
       <c r="D174" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E174" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:5">
       <c r="A175" t="s">
+        <v>725</v>
+      </c>
+      <c r="B175" t="s">
         <v>726</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>728</v>
       </c>
-      <c r="D175" t="s">
-        <v>729</v>
-      </c>
       <c r="E175" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:5">
       <c r="A176" t="s">
+        <v>729</v>
+      </c>
+      <c r="B176" t="s">
         <v>730</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="D176" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E176" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:5">
       <c r="A177" t="s">
+        <v>732</v>
+      </c>
+      <c r="B177" t="s">
+        <v>733</v>
+      </c>
+      <c r="C177" t="s">
         <v>734</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" t="s">
         <v>735</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D177" t="s">
-        <v>736</v>
-      </c>
       <c r="E177" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:5">
       <c r="A178" t="s">
+        <v>736</v>
+      </c>
+      <c r="B178" t="s">
         <v>737</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" t="s">
         <v>739</v>
       </c>
-      <c r="D178" t="s">
-        <v>740</v>
-      </c>
       <c r="E178" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:5">
       <c r="A179" t="s">
+        <v>740</v>
+      </c>
+      <c r="B179" t="s">
         <v>741</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="D179" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E179" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:5">
       <c r="A180" t="s">
+        <v>743</v>
+      </c>
+      <c r="B180" t="s">
         <v>744</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>746</v>
       </c>
-      <c r="D180" t="s">
-        <v>747</v>
-      </c>
       <c r="E180" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:5">
       <c r="A181" t="s">
+        <v>747</v>
+      </c>
+      <c r="B181" t="s">
         <v>748</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C181" t="s">
-        <v>750</v>
-      </c>
       <c r="D181" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E181" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:5">
       <c r="A182" t="s">
+        <v>750</v>
+      </c>
+      <c r="B182" t="s">
+        <v>751</v>
+      </c>
+      <c r="C182" t="s">
         <v>752</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
         <v>753</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>755</v>
+      <c r="E182" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="1:5">
       <c r="A183" t="s">
+        <v>754</v>
+      </c>
+      <c r="B183" t="s">
+        <v>755</v>
+      </c>
+      <c r="C183" t="s">
         <v>756</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
         <v>757</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>759</v>
+      <c r="E183" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:5">
       <c r="A184" t="s">
+        <v>758</v>
+      </c>
+      <c r="B184" t="s">
+        <v>759</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>763</v>
-      </c>
       <c r="E184" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:5">
       <c r="A185" t="s">
+        <v>762</v>
+      </c>
+      <c r="B185" t="s">
+        <v>763</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>767</v>
-      </c>
       <c r="E185" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:5">
       <c r="A186" t="s">
+        <v>766</v>
+      </c>
+      <c r="B186" t="s">
+        <v>767</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>771</v>
-      </c>
       <c r="E186" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:5">
       <c r="A187" t="s">
+        <v>770</v>
+      </c>
+      <c r="B187" t="s">
+        <v>771</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>775</v>
-      </c>
       <c r="E187" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="1:5">
       <c r="A188" t="s">
+        <v>774</v>
+      </c>
+      <c r="B188" t="s">
+        <v>775</v>
+      </c>
+      <c r="C188" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>779</v>
-      </c>
       <c r="E188" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:5">
       <c r="A189" t="s">
+        <v>778</v>
+      </c>
+      <c r="B189" t="s">
+        <v>779</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>783</v>
+      <c r="E189" s="5" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:5">
       <c r="A190" t="s">
+        <v>782</v>
+      </c>
+      <c r="B190" t="s">
+        <v>783</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>787</v>
+      <c r="E190" s="5" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:5">
       <c r="A191" t="s">
+        <v>786</v>
+      </c>
+      <c r="B191" t="s">
+        <v>787</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D191" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>791</v>
+      <c r="E191" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:5">
       <c r="A192" t="s">
+        <v>790</v>
+      </c>
+      <c r="B192" t="s">
+        <v>791</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B192" t="s">
+      <c r="D192" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:5">
       <c r="A193" t="s">
+        <v>794</v>
+      </c>
+      <c r="B193" t="s">
+        <v>795</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>799</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="1:5">
       <c r="A194" t="s">
+        <v>798</v>
+      </c>
+      <c r="B194" t="s">
+        <v>799</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>803</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:5">
       <c r="A195" t="s">
+        <v>802</v>
+      </c>
+      <c r="B195" t="s">
+        <v>803</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B195" t="s">
+      <c r="D195" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>807</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="1:5">
       <c r="A196" t="s">
+        <v>806</v>
+      </c>
+      <c r="B196" t="s">
+        <v>807</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>811</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:5">
       <c r="A197" t="s">
+        <v>810</v>
+      </c>
+      <c r="B197" t="s">
+        <v>811</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B197" t="s">
+      <c r="D197" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:5">
+      <c r="A198" t="s">
         <v>814</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="B198" t="s">
         <v>815</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="198" customHeight="1"/>
-    <row r="199" customHeight="1"/>
+      <c r="C198" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:5">
+      <c r="A199" t="s">
+        <v>818</v>
+      </c>
+      <c r="B199" t="s">
+        <v>819</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="1:5">
+      <c r="A200" t="s">
+        <v>822</v>
+      </c>
+      <c r="B200" t="s">
+        <v>823</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D200" t="s">
+        <v>824</v>
+      </c>
+      <c r="E200" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:5">
+      <c r="A201" t="s">
+        <v>825</v>
+      </c>
+      <c r="B201" t="s">
+        <v>826</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>828</v>
+      </c>
+      <c r="B202" t="s">
+        <v>829</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
